--- a/DATA_DIPA/DIPA_2022.xlsx
+++ b/DATA_DIPA/DIPA_2022.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,22 +31,13 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00366092"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -69,8 +60,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>

--- a/DATA_DIPA/DIPA_2022.xlsx
+++ b/DATA_DIPA/DIPA_2022.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,13 +31,22 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,8 +69,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>

--- a/DATA_DIPA/DIPA_2022.xlsx
+++ b/DATA_DIPA/DIPA_2022.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,13 +31,22 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,8 +69,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -429,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,6 +517,11 @@
           <t>Tahun</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Satker</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,9 +562,18 @@
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N2" t="n">
         <v>2022</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>SATKER 007130</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -592,9 +615,18 @@
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N3" t="n">
         <v>2022</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>SATKER 007190</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -636,9 +668,18 @@
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N4" t="n">
         <v>2022</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>SATKER 007208</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -680,9 +721,18 @@
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N5" t="n">
         <v>2022</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>SATKER 098963</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -724,9 +774,18 @@
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N6" t="n">
         <v>2022</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>SATKER 099228</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -768,9 +827,18 @@
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N7" t="n">
         <v>2022</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>SATKER 111071</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -812,9 +880,18 @@
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N8" t="n">
         <v>2022</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>SATKER 111079</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -856,9 +933,18 @@
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N9" t="n">
         <v>2022</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>SATKER 111804</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -900,9 +986,18 @@
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N10" t="n">
         <v>2022</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>SATKER 401944</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -944,9 +1039,18 @@
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N11" t="n">
         <v>2022</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>SATKER 401945</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -988,9 +1092,18 @@
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N12" t="n">
         <v>2022</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>SATKER 402267</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1032,9 +1145,18 @@
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N13" t="n">
         <v>2022</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>SATKER 402268</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1076,9 +1198,18 @@
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N14" t="n">
         <v>2022</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>SATKER 403409</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1120,9 +1251,18 @@
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N15" t="n">
         <v>2022</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>SATKER 403410</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1164,9 +1304,18 @@
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N16" t="n">
         <v>2022</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>SATKER 403603</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1208,9 +1357,18 @@
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N17" t="n">
         <v>2022</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>SATKER 406426</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1252,9 +1410,18 @@
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N18" t="n">
         <v>2022</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>SATKER 406472</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1296,9 +1463,18 @@
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N19" t="n">
         <v>2022</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>SATKER 406488</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1340,9 +1516,18 @@
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N20" t="n">
         <v>2022</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>SATKER 410574</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1384,9 +1569,18 @@
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N21" t="n">
         <v>2022</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>SATKER 418456</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1428,9 +1622,18 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N22" t="n">
         <v>2022</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>SATKER 418457</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1472,9 +1675,18 @@
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N23" t="n">
         <v>2022</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>SATKER 418458</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1516,9 +1728,18 @@
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N24" t="n">
         <v>2022</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>SATKER 418459</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1560,9 +1781,18 @@
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N25" t="n">
         <v>2022</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>SATKER 418460</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1604,9 +1834,18 @@
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N26" t="n">
         <v>2022</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>SATKER 418461</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1648,9 +1887,18 @@
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N27" t="n">
         <v>2022</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>SATKER 418462</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1692,9 +1940,18 @@
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N28" t="n">
         <v>2022</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>SATKER 418471</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1736,9 +1993,18 @@
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N29" t="n">
         <v>2022</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>SATKER 419006</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1780,9 +2046,18 @@
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N30" t="n">
         <v>2022</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>SATKER 424245</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1824,9 +2099,18 @@
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N31" t="n">
         <v>2022</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>SATKER 424967</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1868,9 +2152,18 @@
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N32" t="n">
         <v>2022</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>SATKER 426050</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1912,9 +2205,18 @@
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N33" t="n">
         <v>2022</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>SATKER 426066</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1956,9 +2258,18 @@
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N34" t="n">
         <v>2022</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>SATKER 428258</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2000,9 +2311,18 @@
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N35" t="n">
         <v>2022</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>SATKER 431142</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2044,9 +2364,18 @@
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N36" t="n">
         <v>2022</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>SATKER 440502</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2088,9 +2417,18 @@
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N37" t="n">
         <v>2022</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>SATKER 440503</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2132,9 +2470,18 @@
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N38" t="n">
         <v>2022</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>SATKER 440504</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2176,9 +2523,18 @@
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N39" t="n">
         <v>2022</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>SATKER 440505</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2220,9 +2576,18 @@
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N40" t="n">
         <v>2022</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>SATKER 440506</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2264,9 +2629,18 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N41" t="n">
         <v>2022</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>SATKER 440507</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2308,9 +2682,18 @@
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N42" t="n">
         <v>2022</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>SATKER 527975</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2352,9 +2735,18 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N43" t="n">
         <v>2022</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>SATKER 553099</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2396,9 +2788,18 @@
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N44" t="n">
         <v>2022</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>SATKER 553792</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2440,9 +2841,18 @@
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N45" t="n">
         <v>2022</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>SATKER 574370</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2484,9 +2894,18 @@
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N46" t="n">
         <v>2022</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>SATKER 597480</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2528,9 +2947,18 @@
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N47" t="n">
         <v>2022</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>SATKER 597558</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2572,9 +3000,18 @@
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N48" t="n">
         <v>2022</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>SATKER 632013</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2616,9 +3053,18 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N49" t="n">
         <v>2022</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>SATKER 641681</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2660,9 +3106,18 @@
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N50" t="n">
         <v>2022</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>SATKER 653271</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2704,9 +3159,18 @@
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N51" t="n">
         <v>2022</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>SATKER 653530</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2748,9 +3212,18 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N52" t="n">
         <v>2022</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>SATKER 656553</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2792,9 +3265,18 @@
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N53" t="n">
         <v>2022</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>SATKER 656560</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2836,9 +3318,18 @@
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N54" t="n">
         <v>2022</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>SATKER 656574</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2880,9 +3371,18 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N55" t="n">
         <v>2022</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>SATKER 661192</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2924,9 +3424,18 @@
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N56" t="n">
         <v>2022</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>SATKER 662127</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2968,9 +3477,18 @@
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N57" t="n">
         <v>2022</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>SATKER 665292</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -3012,9 +3530,18 @@
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N58" t="n">
         <v>2022</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>SATKER 665307</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -3056,9 +3583,18 @@
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N59" t="n">
         <v>2022</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>SATKER 666501</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -3100,9 +3636,18 @@
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N60" t="n">
         <v>2022</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>SATKER 666502</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -3144,9 +3689,18 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N61" t="n">
         <v>2022</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>SATKER 666503</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -3188,9 +3742,18 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N62" t="n">
         <v>2022</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>SATKER 666504</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -3232,9 +3795,18 @@
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N63" t="n">
         <v>2022</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>SATKER 666505</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -3276,9 +3848,18 @@
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N64" t="n">
         <v>2022</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>SATKER 666506</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -3320,9 +3901,18 @@
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N65" t="n">
         <v>2022</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>SATKER 666507</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -3364,9 +3954,18 @@
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N66" t="n">
         <v>2022</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>SATKER 667215</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3408,9 +4007,18 @@
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N67" t="n">
         <v>2022</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>SATKER 668529</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -3452,9 +4060,18 @@
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N68" t="n">
         <v>2022</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>SATKER 669055</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -3496,9 +4113,18 @@
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N69" t="n">
         <v>2022</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>SATKER 670561</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -3540,9 +4166,18 @@
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N70" t="n">
         <v>2022</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>SATKER 685001</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -3584,9 +4219,18 @@
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>OMSPAN (NON-SPAN)</t>
+        </is>
+      </c>
       <c r="N71" t="n">
         <v>2022</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>SATKER 686503</t>
+        </is>
       </c>
     </row>
   </sheetData>
